--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value257.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value257.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8814267947370628</v>
+        <v>1.757380843162537</v>
       </c>
       <c r="B1">
-        <v>0.9481625906833224</v>
+        <v>2.58054518699646</v>
       </c>
       <c r="C1">
-        <v>1.094720479025465</v>
+        <v>2.827648401260376</v>
       </c>
       <c r="D1">
-        <v>1.775043369782299</v>
+        <v>3.394381523132324</v>
       </c>
       <c r="E1">
-        <v>3.541315136873191</v>
+        <v>1.206219911575317</v>
       </c>
     </row>
   </sheetData>
